--- a/Parallel_Prog/laba5/tests.xlsx
+++ b/Parallel_Prog/laba5/tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbikm\OneDrive\Рабочий стол\study\3_2 курс\Parallel_Prog\laba5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RSOTMBOBIK\Desktop\study\3_2\Parallel_Prog\laba5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72879B3F-1B79-4844-9D19-8891FD81E9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95D55EF-CDDC-4975-AA99-DAC54DB0B1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="28">
   <si>
     <t>poly</t>
   </si>
@@ -104,6 +104,15 @@
   <si>
     <t>srk_pvm</t>
   </si>
+  <si>
+    <t>2th</t>
+  </si>
+  <si>
+    <t>3th</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
 </sst>
 </file>
 
@@ -145,13 +154,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -705,6 +712,448 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'3'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>line</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2^13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.73467E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1295300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7337799999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18592700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35144199999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56927499999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.24651</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6425000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5854100000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.4353</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-839E-45B1-9875-E0966C858462}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>omp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2^13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0344900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7765300000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8546199999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.111716</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22637599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44389699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1498699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3062999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7926600000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1247399999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-839E-45B1-9875-E0966C858462}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1395193423"/>
+        <c:axId val="1395184303"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1395193423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1395184303"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1395184303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1395193423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'3'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1342,7 +1791,739 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>pvm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2^13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.10847653709540248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26075284668564458</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33901398555253215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47038212048534161</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51476136909574521</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4579393993997376</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50296734228781526</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40685724984206856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45685364718715371</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52972975317352688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-57BC-48A9-82B6-2E17CE5C5291}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>mpi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2^13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.056372937092747</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0460956459671662</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0935131277466852</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0713227964436556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1578073472776329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1476531850639271</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0798745570947146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.122218871963002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1090502580313373</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1964716673642588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-57BC-48A9-82B6-2E17CE5C5291}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>posix</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2^13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.1545916227927131</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7588326864259165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2160177548076654</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6292950094203218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5722012212852572</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.197986923208044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0687730429563578</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.102277135622844</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1276025316200147</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2279099948819185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-57BC-48A9-82B6-2E17CE5C5291}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>omp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2^13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.6768359288151649</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3582653917749892</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1119290303031846</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6642826452791006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5524702265257802</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2824484058238736</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.084044283266804</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1457746173524694</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.472689352591585</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4724035972531822</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-57BC-48A9-82B6-2E17CE5C5291}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2^13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3'!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-57BC-48A9-82B6-2E17CE5C5291}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1230684176"/>
+        <c:axId val="1230671696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1230684176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1230671696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1230671696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1230684176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -1784,7 +2965,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2226,7 +3407,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2668,7 +3849,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -3110,7 +4291,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -3772,7 +4953,739 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>pvm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2^13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.11657528442722027</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18075880758807589</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39096159455517748</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38435215468680983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4672033257858032</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50623453863320544</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53813275121540716</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38038018009614921</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4455776237385935</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55204546907817398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E82-49E1-B1DE-87A26548531A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>mpi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2^13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5'!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.6034021767075155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0383662919997596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0032334683938444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2172727344173655</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0187839668499483</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2591998911945286</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0343516034751972</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0054051952092082</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.083638429491226</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0409769859519624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8E82-49E1-B1DE-87A26548531A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>posix</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2^13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5'!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0485314473691583</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.188772403067702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4250093204109204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3721263985967525</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3585330709364254</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4631340827149319</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0830922735085733</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0111379652877177</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1052643901068566</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0815244886651088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8E82-49E1-B1DE-87A26548531A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>omp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2^13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5'!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.4786618616340272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.079797357902073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1728045061378394</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2517132697591724</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6449039668979146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.432105449242056</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1339296687090714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1230805985709011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1715180842484025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2604374315635791</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8E82-49E1-B1DE-87A26548531A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2^13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5'!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8E82-49E1-B1DE-87A26548531A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1230674576"/>
+        <c:axId val="1230675056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1230674576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1230675056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1230675056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1230674576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -4300,7 +6213,449 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>line</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2^13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.7219600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7085099999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1210799999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18767900000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31232199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61452300000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3033300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7158099999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6193600000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.7767</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D32-4623-BCCA-D8A97D776A6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mpi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2^13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.6296000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5142000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9035000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17724699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30167100000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59252700000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2411380000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2961200000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2342500000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.21055</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2D32-4623-BCCA-D8A97D776A6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1395218383"/>
+        <c:axId val="1395222703"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1395218383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1395222703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1395222703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1395218383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -4766,7 +7121,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -4791,11 +7146,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2'!$B$1</c:f>
+              <c:f>res!$V$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>line</c:v>
+                  <c:v>2th</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4814,7 +7169,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'2'!$A$2:$A$11</c:f>
+              <c:f>res!$U$15:$U$24</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4852,39 +7207,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2'!$B$2:$B$11</c:f>
+              <c:f>res!$V$15:$V$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.7219600000000002E-2</c:v>
+                  <c:v>0.11240608129720416</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7085099999999998E-2</c:v>
+                  <c:v>0.25078882331636021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1210799999999995E-2</c:v>
+                  <c:v>0.33360325663561446</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18767900000000001</c:v>
+                  <c:v>0.46950972396643775</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31232199999999999</c:v>
+                  <c:v>0.45179265002639973</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61452300000000004</c:v>
+                  <c:v>0.49347108785223248</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3033300000000001</c:v>
+                  <c:v>0.41087408904725625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7158099999999998</c:v>
+                  <c:v>0.45296468279496094</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.6193600000000004</c:v>
+                  <c:v>0.40599645586861388</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.7767</c:v>
+                  <c:v>0.47676291393645437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4892,7 +7247,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D32-4623-BCCA-D8A97D776A6B}"/>
+              <c16:uniqueId val="{00000000-A2EF-4D7F-BEFC-34B1714FA0ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4901,11 +7256,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2'!$D$1</c:f>
+              <c:f>res!$W$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mpi</c:v>
+                  <c:v>3th</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4924,7 +7279,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'2'!$A$2:$A$11</c:f>
+              <c:f>res!$U$15:$U$24</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4962,39 +7317,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2'!$D$2:$D$11</c:f>
+              <c:f>res!$W$15:$W$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.6296000000000001E-2</c:v>
+                  <c:v>0.10847653709540248</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5142000000000002E-2</c:v>
+                  <c:v>0.26075284668564458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9035000000000003E-2</c:v>
+                  <c:v>0.33901398555253215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17724699999999999</c:v>
+                  <c:v>0.47038212048534161</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30167100000000002</c:v>
+                  <c:v>0.51476136909574521</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59252700000000003</c:v>
+                  <c:v>0.4579393993997376</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2411380000000001</c:v>
+                  <c:v>0.50296734228781526</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2961200000000002</c:v>
+                  <c:v>0.40685724984206856</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2342500000000003</c:v>
+                  <c:v>0.45685364718715371</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.21055</c:v>
+                  <c:v>0.52972975317352688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5002,7 +7357,117 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2D32-4623-BCCA-D8A97D776A6B}"/>
+              <c16:uniqueId val="{00000001-A2EF-4D7F-BEFC-34B1714FA0ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>res!$X$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5th</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>res!$U$15:$U$24</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2^13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>res!$X$15:$X$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.11657528442722027</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18075880758807589</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39096159455517748</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38435215468680983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4672033257858032</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50623453863320544</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53813275121540716</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38038018009614921</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4455776237385935</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55204546907817398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A2EF-4D7F-BEFC-34B1714FA0ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5015,11 +7480,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1395218383"/>
-        <c:axId val="1395222703"/>
+        <c:axId val="1230674096"/>
+        <c:axId val="1230678416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1395218383"/>
+        <c:axId val="1230674096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5062,7 +7527,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1395222703"/>
+        <c:crossAx val="1230678416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5070,7 +7535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1395222703"/>
+        <c:axId val="1230678416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5121,7 +7586,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1395218383"/>
+        <c:crossAx val="1230674096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6779,6 +9244,738 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
+            <c:v>pvm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2^13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.11240608129720416</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25078882331636021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33360325663561446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46950972396643775</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45179265002639973</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49347108785223248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41087408904725625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45296468279496094</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40599645586861388</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47676291393645437</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9938-4BB0-AE64-4A883A850A31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>mpi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2^13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0566764850270005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0430441717247796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0244375807266803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0588557211123462</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0353066751527324</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0371223589811098</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0501088517151196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1827822587669632</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0735750107465254</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0505015364991013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9938-4BB0-AE64-4A883A850A31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>posix</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2^13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0903173517716487</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.554266342291073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3674639096741112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6407658346811209</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3610225034426258</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3946557973070195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.12219629588173</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2239773935930485</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3041952523742772</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0512939538122317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9938-4BB0-AE64-4A883A850A31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>omp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2^13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.4382266470666845</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1669863882857965</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0819196105550588</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6110615138977116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3513003673305153</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4535118322551652</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2111719279985875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2963169802674914</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3841913258959475</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1084161584218055</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9938-4BB0-AE64-4A883A850A31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2^13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2^14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2^15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2^16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2^17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2^18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2^19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2^20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2^21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2^22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2'!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9938-4BB0-AE64-4A883A850A31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1230649136"/>
+        <c:axId val="1230635216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1230649136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1230635216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1230635216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1230649136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
             <c:strRef>
               <c:f>'3'!$B$1</c:f>
               <c:strCache>
@@ -7197,7 +10394,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -7639,7 +10836,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -7995,448 +11192,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1395230383"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>line</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3'!$A$2:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2^13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2^14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2^15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2^16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2^17</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2^18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2^19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2^20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2^21</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2^22</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3'!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.73467E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.1295300000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.7337799999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.18592700000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.35144199999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.56927499999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.24651</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.6425000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.5854100000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.4353</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-839E-45B1-9875-E0966C858462}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'3'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>omp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'3'!$A$2:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2^13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2^14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2^15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2^16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2^17</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2^18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2^19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2^20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2^21</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2^22</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'3'!$F$2:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.0344900000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.7765300000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.8546199999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.111716</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.22637599999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.44389699999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1498699999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.3062999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.7926600000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.1247399999999992</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-839E-45B1-9875-E0966C858462}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1395193423"/>
-        <c:axId val="1395184303"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1395193423"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1395184303"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1395184303"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1395193423"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8883,7 +11638,167 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13847,7 +16762,2071 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18152,6 +23131,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{067393AC-812B-D55E-27CA-5F3A83D1DAE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18342,6 +23357,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD21FAB-BE50-0D47-D218-1D6DCA1D2E92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18527,6 +23578,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F7AB450-D0FF-D2A7-826E-250F571DF636}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18599,6 +23686,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C56C2497-DB76-E234-E9B2-F8EB091BB763}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18904,10 +24027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18917,7 +24040,7 @@
     <col min="8" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18948,8 +24071,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -18984,8 +24110,11 @@
         <f t="shared" ref="J2:J11" si="3">B2/F2</f>
         <v>1.4382266470666845</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -19020,8 +24149,11 @@
         <f t="shared" si="3"/>
         <v>1.1669863882857965</v>
       </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -19056,8 +24188,11 @@
         <f t="shared" si="3"/>
         <v>1.0819196105550588</v>
       </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -19092,8 +24227,11 @@
         <f t="shared" si="3"/>
         <v>1.6110615138977116</v>
       </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -19128,8 +24266,11 @@
         <f t="shared" si="3"/>
         <v>1.3513003673305153</v>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -19164,8 +24305,11 @@
         <f t="shared" si="3"/>
         <v>1.4535118322551652</v>
       </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -19200,8 +24344,11 @@
         <f t="shared" si="3"/>
         <v>1.2111719279985875</v>
       </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -19236,8 +24383,11 @@
         <f t="shared" si="3"/>
         <v>1.2963169802674914</v>
       </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -19272,8 +24422,11 @@
         <f t="shared" si="3"/>
         <v>1.3841913258959475</v>
       </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -19307,6 +24460,9 @@
       <c r="J11" s="1">
         <f t="shared" si="3"/>
         <v>1.1084161584218055</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -19318,10 +24474,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19329,7 +24485,7 @@
     <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19361,7 +24517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -19396,8 +24552,11 @@
         <f t="shared" ref="J2:J11" si="3">B2/F2</f>
         <v>1.6768359288151649</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -19432,8 +24591,11 @@
         <f t="shared" si="3"/>
         <v>1.3582653917749892</v>
       </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -19468,8 +24630,11 @@
         <f t="shared" si="3"/>
         <v>1.1119290303031846</v>
       </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -19504,8 +24669,11 @@
         <f t="shared" si="3"/>
         <v>1.6642826452791006</v>
       </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -19540,8 +24708,11 @@
         <f t="shared" si="3"/>
         <v>1.5524702265257802</v>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -19576,8 +24747,11 @@
         <f t="shared" si="3"/>
         <v>1.2824484058238736</v>
       </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -19612,8 +24786,11 @@
         <f t="shared" si="3"/>
         <v>1.084044283266804</v>
       </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -19648,8 +24825,11 @@
         <f t="shared" si="3"/>
         <v>1.1457746173524694</v>
       </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -19684,8 +24864,11 @@
         <f t="shared" si="3"/>
         <v>1.472689352591585</v>
       </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -19719,6 +24902,9 @@
       <c r="J11" s="1">
         <f t="shared" si="3"/>
         <v>1.4724035972531822</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -19730,10 +24916,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19741,7 +24927,7 @@
     <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19773,7 +24959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -19808,8 +24994,11 @@
         <f t="shared" ref="J2:J11" si="3">B2/F2</f>
         <v>1.4786618616340272</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -19844,8 +25033,11 @@
         <f t="shared" si="3"/>
         <v>1.079797357902073</v>
       </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -19880,8 +25072,11 @@
         <f t="shared" si="3"/>
         <v>1.1728045061378394</v>
       </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -19916,8 +25111,11 @@
         <f t="shared" si="3"/>
         <v>1.2517132697591724</v>
       </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -19952,8 +25150,11 @@
         <f t="shared" si="3"/>
         <v>1.6449039668979146</v>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -19988,8 +25189,11 @@
         <f t="shared" si="3"/>
         <v>1.432105449242056</v>
       </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -20024,8 +25228,11 @@
         <f t="shared" si="3"/>
         <v>1.1339296687090714</v>
       </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -20060,8 +25267,11 @@
         <f t="shared" si="3"/>
         <v>1.1230805985709011</v>
       </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -20096,8 +25306,11 @@
         <f t="shared" si="3"/>
         <v>1.1715180842484025</v>
       </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -20131,6 +25344,9 @@
       <c r="J11" s="1">
         <f t="shared" si="3"/>
         <v>1.2604374315635791</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -20142,15 +25358,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B85FC5-C7D8-4394-BE28-131CB0A6575F}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView tabSelected="1" topLeftCell="D12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20164,7 +25380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -20178,7 +25394,7 @@
         <v>0.160498</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -20192,7 +25408,7 @@
         <v>0.19114200000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -20206,7 +25422,7 @@
         <v>0.25712499999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -20220,7 +25436,7 @@
         <v>0.40298200000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -20234,7 +25450,7 @@
         <v>0.68410899999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -20248,7 +25464,7 @@
         <v>1.2802070000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -20262,7 +25478,7 @@
         <v>2.4004300000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -20276,7 +25492,7 @@
         <v>6.7971469999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -20290,7 +25506,7 @@
         <v>12.714081</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -20304,34 +25520,188 @@
         <v>24.396360000000001</v>
       </c>
     </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="U14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="U15" t="s">
+        <v>10</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0.11240608129720416</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0.10847653709540248</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0.11657528442722027</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="U16" t="s">
+        <v>11</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0.25078882331636021</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0.26075284668564458</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0.18075880758807589</v>
+      </c>
+    </row>
+    <row r="17" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U17" t="s">
+        <v>12</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0.33360325663561446</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0.33901398555253215</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0.39096159455517748</v>
+      </c>
+    </row>
+    <row r="18" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U18" t="s">
+        <v>13</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0.46950972396643775</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0.47038212048534161</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0.38435215468680983</v>
+      </c>
+    </row>
+    <row r="19" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U19" t="s">
+        <v>14</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0.45179265002639973</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0.51476136909574521</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0.4672033257858032</v>
+      </c>
+    </row>
+    <row r="20" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U20" t="s">
+        <v>15</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0.49347108785223248</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0.4579393993997376</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0.50623453863320544</v>
+      </c>
+    </row>
+    <row r="21" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U21" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0.41087408904725625</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0.50296734228781526</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0.53813275121540716</v>
+      </c>
+    </row>
+    <row r="22" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U22" t="s">
+        <v>17</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0.45296468279496094</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0.40685724984206856</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0.38038018009614921</v>
+      </c>
+    </row>
+    <row r="23" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U23" t="s">
+        <v>18</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0.40599645586861388</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0.45685364718715371</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0.4455776237385935</v>
+      </c>
+    </row>
+    <row r="24" spans="21:24" x14ac:dyDescent="0.2">
+      <c r="U24" t="s">
+        <v>19</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0.47676291393645437</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0.52972975317352688</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0.55204546907817398</v>
+      </c>
+    </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="A36">
         <v>2</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
         <v>0.38581697599999998</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36">
         <v>1.0612410649999999</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36">
         <v>1.3110154629999999</v>
       </c>
       <c r="E36">
@@ -20339,16 +25709,16 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+      <c r="A37">
         <v>3</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
         <v>0.40477342500000002</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37">
         <v>1.108038039</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37">
         <v>1.305548792</v>
       </c>
       <c r="E37">
@@ -20356,27 +25726,21 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+      <c r="A38">
         <v>5</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
         <v>0.39622217300000001</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38">
         <v>1.1304630739999999</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38">
         <v>1.213712584</v>
       </c>
       <c r="E38">
         <v>1.274895219</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
